--- a/data/sheets/Other.xlsx
+++ b/data/sheets/Other.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB0D179-5F93-4513-9EE2-DC09DC01788B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F59825F3-6BB3-43DA-B815-5B376CE91B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53289ADF-FB53-4867-A173-7FF45EEE36FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08D849A4-ECBA-42E0-BA2C-85CCD52711C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Other" sheetId="2" r:id="rId1"/>
+    <sheet name="Other" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -403,14 +402,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -731,261 +723,259 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{C88CEB21-96D2-4E44-832B-9AE49EFBD677}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{BB1C2AE3-4AD1-4B19-852E-E8B320C890DD}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1463,7 +1453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1A4504-6786-486E-9604-A646374A31DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BE6662-39D9-4822-9025-B64BDE441A11}">
   <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1474,7 +1464,7 @@
       <selection pane="bottomRight" activeCell="I2678" sqref="I2678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="12.77734375" style="13" customWidth="1" outlineLevel="1"/>
     <col min="10" max="11" width="29.77734375" style="13" customWidth="1"/>
@@ -1497,7 +1487,7 @@
     <col min="32" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1637,7 +1627,7 @@
       <c r="AE2" s="24"/>
       <c r="AF2" s="25"/>
     </row>
-    <row r="3" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +1677,7 @@
       <c r="AE3" s="32"/>
       <c r="AF3" s="33"/>
     </row>
-    <row r="4" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="J4" s="15"/>
       <c r="L4" s="17"/>
       <c r="M4" s="26"/>
@@ -1707,7 +1697,7 @@
       <c r="AE4" s="32"/>
       <c r="AF4" s="33"/>
     </row>
-    <row r="5" spans="1:32" ht="16.8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="16.8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="J5" s="35" t="s">
         <v>42</v>
       </c>
@@ -1733,7 +1723,7 @@
       <c r="AE5" s="32"/>
       <c r="AF5" s="33"/>
     </row>
-    <row r="6" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L6, A$3)</f>
         <v>#NAME?</v>
@@ -1845,7 +1835,7 @@
       </c>
       <c r="AF6" s="33"/>
     </row>
-    <row r="7" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L7, A$3)</f>
         <v>#NAME?</v>
@@ -1957,7 +1947,7 @@
       </c>
       <c r="AF7" s="33"/>
     </row>
-    <row r="8" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L8, A$3)</f>
         <v>#NAME?</v>
@@ -2069,7 +2059,7 @@
       </c>
       <c r="AF8" s="33"/>
     </row>
-    <row r="9" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L9, A$3)</f>
         <v>#NAME?</v>
@@ -2181,7 +2171,7 @@
       </c>
       <c r="AF9" s="33"/>
     </row>
-    <row r="10" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L10, A$3)</f>
         <v>#NAME?</v>
@@ -2293,7 +2283,7 @@
       </c>
       <c r="AF10" s="33"/>
     </row>
-    <row r="11" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L11, A$3)</f>
         <v>#NAME?</v>
@@ -2405,7 +2395,7 @@
       </c>
       <c r="AF11" s="33"/>
     </row>
-    <row r="12" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L12, A$3)</f>
         <v>#NAME?</v>
@@ -2518,7 +2508,7 @@
       </c>
       <c r="AF12" s="33"/>
     </row>
-    <row r="13" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L13, A$3)</f>
         <v>#NAME?</v>
@@ -2630,7 +2620,7 @@
       </c>
       <c r="AF13" s="33"/>
     </row>
-    <row r="14" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L14, A$3)</f>
         <v>#NAME?</v>
@@ -2742,7 +2732,7 @@
       </c>
       <c r="AF14" s="33"/>
     </row>
-    <row r="15" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($L15, A$3)</f>
         <v>#NAME?</v>
@@ -2854,7 +2844,7 @@
       </c>
       <c r="AF15" s="78"/>
     </row>
-    <row r="16" spans="1:32" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
       <c r="J16" s="80"/>
       <c r="K16" s="80"/>
@@ -3052,7 +3042,7 @@
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="81"/>
     </row>
   </sheetData>
